--- a/Labs/Lab9/Temperatures.xlsx
+++ b/Labs/Lab9/Temperatures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\BCIT Work Synced Folder\My Courses\COMP3522 OOP 2\Winter 2020\Week 10\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN\PycharmProjects\3522_A00910749\Labs\Lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E3C50-6DF9-4703-86D8-8908FDB6D37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37769FD-84BF-42E1-ACAF-E66A9FB34B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,12 +351,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -372,7 +372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -380,7 +380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -388,7 +388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -396,7 +396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -404,7 +404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -412,7 +412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -420,7 +420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -428,7 +428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -436,7 +436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -444,7 +444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -452,7 +452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/Labs/Lab9/Temperatures.xlsx
+++ b/Labs/Lab9/Temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN\PycharmProjects\3522_A00910749\Labs\Lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37769FD-84BF-42E1-ACAF-E66A9FB34B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939BC32-575C-4BC1-A39E-48BC8CCBA43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
